--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CompositePortraitRecongnition\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MSVS_projects\teach\CompositePortraitRecongnition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="results" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,9 +368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -379,7 +381,7 @@
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -400,8 +402,12 @@
       <c r="C2">
         <v>0.57948822115796694</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>1.0045220267061328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -411,8 +417,12 @@
       <c r="C3">
         <v>0.69009060997317639</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
+        <v>1.0116682053669581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -422,8 +432,12 @@
       <c r="C4">
         <v>0.81148430201312616</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.93570305741755877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -432,6 +446,16 @@
       </c>
       <c r="C5">
         <v>0.6384303963590946</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.0239472126513036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>SUM(D2:D5)/4</f>
+        <v>0.9939601255354884</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,52 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MSVS_projects\teach\CompositePortraitRecongnition\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>№ пары изображений</t>
-  </si>
-  <si>
-    <t>Расстояние до переноса стиля</t>
-  </si>
-  <si>
-    <t>Расстояние после переноса стиля</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -367,95 +409,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>№ пары изображений</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Расстояние до переноса стиля</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Расстояние после переноса стиля</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="n">
+        <v>0.6981427289321528</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6900906099731764</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.58210868236993263</v>
-      </c>
-      <c r="C2">
-        <v>0.57948822115796694</v>
-      </c>
-      <c r="D2">
-        <f>B2/C2</f>
-        <v>1.0045220267061328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.69814272893215279</v>
-      </c>
-      <c r="C3">
-        <v>0.69009060997317639</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
-        <v>1.0116682053669581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" t="n">
+        <v>0.7593083424400358</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8114843020131262</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.75930834244003576</v>
-      </c>
-      <c r="C4">
-        <v>0.81148430201312616</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.93570305741755877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" t="n">
+        <v>0.6537190248237619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6384303963590946</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.65371902482376187</v>
-      </c>
-      <c r="C5">
-        <v>0.6384303963590946</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.0239472126513036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <f>SUM(D2:D5)/4</f>
-        <v>0.9939601255354884</v>
+      <c r="B5" t="n">
+        <v>0.7718901967512342</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7964303098175904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6424025206057313</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6163731154104217</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7113313892060298</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6820363932821293</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6985027440168776</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6573289094154495</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5621272500530468</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5903696824065264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7669342175270629</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7330400849497321</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7950532845299012</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.754820729126691</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4914829060884561</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4725797102277756</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6931100097186211</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6552857113411387</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6994681282665129</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7545523635001893</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7556673739166735</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6791902065932923</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8743547059666862</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8485848351162421</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6093716345737735</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6481435512895773</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.736135897052708</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6392438152031136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7391632763897428</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6552475367373298</v>
       </c>
     </row>
   </sheetData>
@@ -464,12 +643,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,12 +430,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Расстояние до переноса стиля</t>
+          <t>Расстояние до переноса стиля tensorflow</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Расстояние после переноса стиля</t>
+          <t>Расстояние после переноса стиля tensorflow</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Расстояние до переноса стиля arcface,Расстояние после переноса стиля arcface</t>
         </is>
       </c>
     </row>
@@ -449,6 +454,12 @@
       <c r="C2" t="n">
         <v>0.6900906099731764</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.03230053186416626</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01071752980351448</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -460,6 +471,12 @@
       <c r="C3" t="n">
         <v>0.8114843020131262</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.07159358263015747</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06596450507640839</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -471,6 +488,12 @@
       <c r="C4" t="n">
         <v>0.6384303963590946</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.1831206232309341</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01908320561051369</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -480,7 +503,13 @@
         <v>0.7718901967512342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7964303098175904</v>
+        <v>0.7964307258438679</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11044642329216</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03032833524048328</v>
       </c>
     </row>
     <row r="6">
@@ -493,6 +522,12 @@
       <c r="C6" t="n">
         <v>0.6163731154104217</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.05190222710371017</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06330510973930359</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -504,6 +539,12 @@
       <c r="C7" t="n">
         <v>0.6820363932821293</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.0741061195731163</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0427030511200428</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -515,6 +556,12 @@
       <c r="C8" t="n">
         <v>0.6573289094154495</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.06903903931379318</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04660750180482864</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -526,6 +573,12 @@
       <c r="C9" t="n">
         <v>0.5903696824065264</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.05451708287000656</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03171984478831291</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -535,7 +588,13 @@
         <v>0.7669342175270629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7330400849497321</v>
+        <v>0.7330427481233784</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1547363102436066</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08104228973388672</v>
       </c>
     </row>
     <row r="11">
@@ -546,7 +605,13 @@
         <v>0.7950532845299012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.754820729126691</v>
+        <v>0.754825674803941</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.04635890573263168</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06895835697650909</v>
       </c>
     </row>
     <row r="12">
@@ -557,7 +622,13 @@
         <v>0.4914829060884561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4725797102277756</v>
+        <v>0.4725813935492413</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01744678616523743</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02074667811393738</v>
       </c>
     </row>
     <row r="13">
@@ -570,6 +641,12 @@
       <c r="C13" t="n">
         <v>0.6552857113411387</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.03705150634050369</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02712763473391533</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -581,6 +658,12 @@
       <c r="C14" t="n">
         <v>0.7545523635001893</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.05199411883950233</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04723206162452698</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -590,7 +673,13 @@
         <v>0.7556673739166735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6791902065932923</v>
+        <v>0.6791952460002608</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.07539159804582596</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05160433799028397</v>
       </c>
     </row>
     <row r="16">
@@ -603,6 +692,12 @@
       <c r="C16" t="n">
         <v>0.8485848351162421</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.08692525327205658</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.02815583720803261</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -614,6 +709,12 @@
       <c r="C17" t="n">
         <v>0.6481435512895773</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.04295807331800461</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.03566687181591988</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -623,7 +724,13 @@
         <v>0.736135897052708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6392438152031136</v>
+        <v>0.6392438678374194</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2073389887809753</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.07804397493600845</v>
       </c>
     </row>
     <row r="19">
@@ -635,6 +742,12 @@
       </c>
       <c r="C19" t="n">
         <v>0.6552475367373298</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.03760791569948196</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.05074924603104591</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -440,7 +440,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Расстояние до переноса стиля arcface,Расстояние после переноса стиля arcface</t>
+          <t>Расстояние до переноса стиля arcface</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Расстояние после переноса стиля arcface</t>
         </is>
       </c>
     </row>
@@ -452,13 +457,13 @@
         <v>0.6981427289321528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6900906099731764</v>
+        <v>0.6900752004639339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03230053186416626</v>
+        <v>0.008492808789014816</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01071752980351448</v>
+        <v>0.002082576043903828</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +477,10 @@
         <v>0.8114843020131262</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07159358263015747</v>
+        <v>0.01410352624952793</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06596450507640839</v>
+        <v>0.01060810126364231</v>
       </c>
     </row>
     <row r="4">
@@ -489,10 +494,10 @@
         <v>0.6384303963590946</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1831206232309341</v>
+        <v>0.01806437224149704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01908320561051369</v>
+        <v>0.003665033960714936</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +508,13 @@
         <v>0.7718901967512342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7964307258438679</v>
+        <v>0.7964303098175904</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11044642329216</v>
+        <v>0.009923557750880718</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03032833524048328</v>
+        <v>0.005861029028892517</v>
       </c>
     </row>
     <row r="6">
@@ -523,10 +528,10 @@
         <v>0.6163731154104217</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05190222710371017</v>
+        <v>0.01835355162620544</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06330510973930359</v>
+        <v>0.01003515347838402</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +545,10 @@
         <v>0.6820363932821293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0741061195731163</v>
+        <v>0.01772580668330193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0427030511200428</v>
+        <v>0.01566718332469463</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +562,10 @@
         <v>0.6573289094154495</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06903903931379318</v>
+        <v>0.01674813218414783</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04660750180482864</v>
+        <v>0.00910513661801815</v>
       </c>
     </row>
     <row r="9">
@@ -574,10 +579,10 @@
         <v>0.5903696824065264</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05451708287000656</v>
+        <v>0.02624757029116154</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03171984478831291</v>
+        <v>0.01961797103285789</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +593,13 @@
         <v>0.7669342175270629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7330427481233784</v>
+        <v>0.7330400849497321</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1547363102436066</v>
+        <v>0.0465083047747612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08104228973388672</v>
+        <v>0.03962106630206108</v>
       </c>
     </row>
     <row r="11">
@@ -605,13 +610,13 @@
         <v>0.7950532845299012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.754825674803941</v>
+        <v>0.754820729126691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04635890573263168</v>
+        <v>0.02004562132060528</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06895835697650909</v>
+        <v>0.01289359852671623</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +627,13 @@
         <v>0.4914829060884561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4725813935492413</v>
+        <v>0.4725797102277756</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01744678616523743</v>
+        <v>0.006884787697345018</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02074667811393738</v>
+        <v>0.005170291755348444</v>
       </c>
     </row>
     <row r="13">
@@ -642,10 +647,10 @@
         <v>0.6552857113411387</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03705150634050369</v>
+        <v>0.0232948437333107</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02712763473391533</v>
+        <v>0.01254448667168617</v>
       </c>
     </row>
     <row r="14">
@@ -659,10 +664,10 @@
         <v>0.7545523635001893</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05199411883950233</v>
+        <v>0.02751919999718666</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04723206162452698</v>
+        <v>0.02013404667377472</v>
       </c>
     </row>
     <row r="15">
@@ -673,13 +678,13 @@
         <v>0.7556673739166735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6791952460002608</v>
+        <v>0.6791948264882282</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07539159804582596</v>
+        <v>0.03104481101036072</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05160433799028397</v>
+        <v>0.01083913818001747</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +698,10 @@
         <v>0.8485848351162421</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08692525327205658</v>
+        <v>0.02553591132164001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02815583720803261</v>
+        <v>0.01203899551182985</v>
       </c>
     </row>
     <row r="17">
@@ -710,10 +715,10 @@
         <v>0.6481435512895773</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04295807331800461</v>
+        <v>0.01383387669920921</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03566687181591988</v>
+        <v>0.01148590538650751</v>
       </c>
     </row>
     <row r="18">
@@ -724,13 +729,13 @@
         <v>0.736135897052708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6392438678374194</v>
+        <v>0.6392436588714024</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2073389887809753</v>
+        <v>0.1120398044586182</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07804397493600845</v>
+        <v>0.07538660615682602</v>
       </c>
     </row>
     <row r="19">
@@ -741,13 +746,13 @@
         <v>0.7391632763897428</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6552475367373298</v>
+        <v>0.6552471888204152</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03760791569948196</v>
+        <v>0.02931328490376472</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05074924603104591</v>
+        <v>0.02313164621591568</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -454,16 +454,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6981427289321528</v>
+        <v>0.701460474100761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6900752004639339</v>
+        <v>0.7014221224979839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008492808789014816</v>
+        <v>0.00921802781522274</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002082576043903828</v>
+        <v>0.002188196638599038</v>
       </c>
     </row>
     <row r="3">
@@ -471,16 +471,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7593083424400358</v>
+        <v>0.7608322267528042</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8114843020131262</v>
+        <v>0.8101514534079264</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01410352624952793</v>
+        <v>0.01531793642789125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01060810126364231</v>
+        <v>0.01246019825339317</v>
       </c>
     </row>
     <row r="4">
@@ -488,16 +488,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6537190248237619</v>
+        <v>0.6583490089977085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6384303963590946</v>
+        <v>0.6551823223469332</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01806437224149704</v>
+        <v>0.01853840053081512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003665033960714936</v>
+        <v>0.003274488728493452</v>
       </c>
     </row>
     <row r="5">
@@ -505,16 +505,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7718901967512342</v>
+        <v>0.775545979630454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7964303098175904</v>
+        <v>0.7963016222642612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009923557750880718</v>
+        <v>0.01077786833047867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005861029028892517</v>
+        <v>0.006051451433449984</v>
       </c>
     </row>
     <row r="6">
@@ -522,16 +522,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6424025206057313</v>
+        <v>0.63322110625362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6163731154104217</v>
+        <v>0.5960019331165983</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01835355162620544</v>
+        <v>0.01873300410807133</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01003515347838402</v>
+        <v>0.01038294844329357</v>
       </c>
     </row>
     <row r="7">
@@ -539,16 +539,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7113313892060298</v>
+        <v>0.696835444845756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6820363932821293</v>
+        <v>0.6772249883860954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01772580668330193</v>
+        <v>0.01883435994386673</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01566718332469463</v>
+        <v>0.0156498197466135</v>
       </c>
     </row>
     <row r="8">
@@ -556,16 +556,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6985027440168776</v>
+        <v>0.7031698175963234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6573289094154495</v>
+        <v>0.6480114350028756</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01674813218414783</v>
+        <v>0.01851365901529789</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00910513661801815</v>
+        <v>0.009519393555819988</v>
       </c>
     </row>
     <row r="9">
@@ -573,16 +573,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5621272500530468</v>
+        <v>0.5074973337885037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5903696824065264</v>
+        <v>0.5618052683752099</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02624757029116154</v>
+        <v>0.02887573838233948</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01961797103285789</v>
+        <v>0.02052079513669014</v>
       </c>
     </row>
     <row r="10">
@@ -590,16 +590,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7669342175270629</v>
+        <v>0.7591028727087614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7330400849497321</v>
+        <v>0.7269015622091259</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0465083047747612</v>
+        <v>0.0450722724199295</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03962106630206108</v>
+        <v>0.04082705825567245</v>
       </c>
     </row>
     <row r="11">
@@ -607,16 +607,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7950532845299012</v>
+        <v>0.7894464926494161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.754820729126691</v>
+        <v>0.7435859500757549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02004562132060528</v>
+        <v>0.02352042868733406</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01289359852671623</v>
+        <v>0.0149396974593401</v>
       </c>
     </row>
     <row r="12">
@@ -624,16 +624,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4914829060884561</v>
+        <v>0.4739061584753052</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4725797102277756</v>
+        <v>0.4480116858024746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.006884787697345018</v>
+        <v>0.007459850050508976</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005170291755348444</v>
+        <v>0.005506517831236124</v>
       </c>
     </row>
     <row r="13">
@@ -641,16 +641,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6931100097186211</v>
+        <v>0.6935747003736874</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6552857113411387</v>
+        <v>0.6640252545140365</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0232948437333107</v>
+        <v>0.02653098106384277</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01254448667168617</v>
+        <v>0.01588558219373226</v>
       </c>
     </row>
     <row r="14">
@@ -658,16 +658,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6994681282665129</v>
+        <v>0.6997655701428468</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7545523635001893</v>
+        <v>0.7547041824631651</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02751919999718666</v>
+        <v>0.02889014780521393</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02013404667377472</v>
+        <v>0.02135049551725388</v>
       </c>
     </row>
     <row r="15">
@@ -675,16 +675,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7556673739166735</v>
+        <v>0.7652468767042275</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6791948264882282</v>
+        <v>0.7112876378675204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03104481101036072</v>
+        <v>0.03103909641504288</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01083913818001747</v>
+        <v>0.01275253854691982</v>
       </c>
     </row>
     <row r="16">
@@ -692,16 +692,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8743547059666862</v>
+        <v>0.8639562914236636</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8485848351162421</v>
+        <v>0.838347845800362</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02553591132164001</v>
+        <v>0.02276878617703915</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01203899551182985</v>
+        <v>0.01191858761012554</v>
       </c>
     </row>
     <row r="17">
@@ -709,16 +709,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6093716345737735</v>
+        <v>0.6003726431216587</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6481435512895773</v>
+        <v>0.6484345613257172</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01383387669920921</v>
+        <v>0.01317205093801022</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01148590538650751</v>
+        <v>0.01011515501886606</v>
       </c>
     </row>
     <row r="18">
@@ -726,16 +726,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.736135897052708</v>
+        <v>0.7469573475915958</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6392436588714024</v>
+        <v>0.6616749005906198</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1120398044586182</v>
+        <v>0.1047332286834717</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07538660615682602</v>
+        <v>0.07370149344205856</v>
       </c>
     </row>
     <row r="19">
@@ -743,16 +743,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7391632763897428</v>
+        <v>0.7185787508686599</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6552471888204152</v>
+        <v>0.6465363808979195</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02931328490376472</v>
+        <v>0.03013242594897747</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02313164621591568</v>
+        <v>0.02225074544548988</v>
       </c>
     </row>
   </sheetData>
